--- a/biology/Zoologie/Adelphobates/Adelphobates.xlsx
+++ b/biology/Zoologie/Adelphobates/Adelphobates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelphobates est un genre d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelphobates est un genre d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent au Pérou et au Brésil[1].
-Elles vivent dans la forêt tropicale humide. Les  trois espèce sont terrestres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent au Pérou et au Brésil.
+Elles vivent dans la forêt tropicale humide. Les  trois espèce sont terrestres.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Adelphobates castaneoticus (Caldwell &amp; Myers, 1990)
 Adelphobates galactonotus (Steindachner, 1864)
 Adelphobates quinquevittatus (Steindachner, 1864)</t>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est formé du grec adelphos, frères ou jumeaux, et bates, marcheur, en référence à Charles William Myers et John William Daly[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est formé du grec adelphos, frères ou jumeaux, et bates, marcheur, en référence à Charles William Myers et John William Daly.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grant, Frost, Caldwell, Gagliardo, Haddad, Kok, Means, Noonan, Schargel &amp; Wheeler, 2006 : Phylogenetic systematics of dart-poison frogs and their relatives (Amphibia: Athesphatanura: Dendrobatidae).  Bulletin of the American Museum of Natural History, no 299, p. 1-262 (texte intégral).</t>
         </is>
